--- a/Reportes/Reporte_Data_40_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_40_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
@@ -135,10 +135,10 @@
     <t>Pedido_39</t>
   </si>
   <si>
+    <t>Pedido_26</t>
+  </si>
+  <si>
     <t>Pedido_32</t>
-  </si>
-  <si>
-    <t>Pedido_26</t>
   </si>
   <si>
     <t>Pedido_30</t>

--- a/Reportes/Reporte_Data_40_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
+++ b/Reportes/Reporte_Data_40_Salidas_composición_zonas_heterogéneas.xlsx_grasp.xlsx
@@ -135,10 +135,10 @@
     <t>Pedido_39</t>
   </si>
   <si>
+    <t>Pedido_32</t>
+  </si>
+  <si>
     <t>Pedido_26</t>
-  </si>
-  <si>
-    <t>Pedido_32</t>
   </si>
   <si>
     <t>Pedido_30</t>
